--- a/yield.xlsx
+++ b/yield.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/yield.xlsx
+++ b/yield.xlsx
@@ -32,6 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,8 +120,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,17 +434,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" customWidth="1"/>
@@ -455,7 +458,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
@@ -464,63 +467,87 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>44327</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
-        <f>B2/400000</f>
+      <c r="C2" s="5">
+        <f>ROUND(B2/400000,5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>44335</v>
       </c>
       <c r="B3" s="3">
         <v>92</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:C6" si="0">B3/400000</f>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C6" si="0">ROUND(B3/400000,5)</f>
         <v>2.3000000000000001E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>44336</v>
       </c>
       <c r="B4" s="3">
         <v>136</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <f t="shared" si="0"/>
         <v>3.4000000000000002E-4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>44340</v>
       </c>
       <c r="B5" s="3">
         <v>360</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>44342</v>
       </c>
       <c r="B6" s="3">
         <v>1580</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>3.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44347</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1325</v>
+      </c>
+      <c r="C7" s="5">
+        <f>ROUND(B7/400000,5)</f>
+        <v>3.31E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44362</v>
+      </c>
+      <c r="B8" s="3">
+        <v>890</v>
+      </c>
+      <c r="C8" s="5">
+        <f>ROUND(B8/400000,5)</f>
+        <v>2.2300000000000002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/yield.xlsx
+++ b/yield.xlsx
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -486,7 +486,7 @@
         <v>92</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C6" si="0">ROUND(B3/400000,5)</f>
+        <f t="shared" ref="C3:C5" si="0">ROUND(B3/400000,5)</f>
         <v>2.3000000000000001E-4</v>
       </c>
     </row>
@@ -522,7 +522,7 @@
         <v>1580</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C6:C7" si="1">ROUND(B6/400000,5)</f>
         <v>3.9500000000000004E-3</v>
       </c>
     </row>
@@ -534,7 +534,7 @@
         <v>1325</v>
       </c>
       <c r="C7" s="5">
-        <f>ROUND(B7/400000,5)</f>
+        <f t="shared" si="1"/>
         <v>3.31E-3</v>
       </c>
     </row>
@@ -543,11 +543,23 @@
         <v>44362</v>
       </c>
       <c r="B8" s="3">
-        <v>890</v>
+        <v>1250</v>
       </c>
       <c r="C8" s="5">
-        <f>ROUND(B8/400000,5)</f>
-        <v>2.2300000000000002E-3</v>
+        <f t="shared" ref="C8" si="2">ROUND(B8/400000,5)</f>
+        <v>3.13E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44363</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1050</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9" si="3">ROUND(B9/400000,5)</f>
+        <v>2.63E-3</v>
       </c>
     </row>
   </sheetData>

--- a/yield.xlsx
+++ b/yield.xlsx
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -562,6 +562,18 @@
         <v>2.63E-3</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44364</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1180</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" ref="C10" si="4">ROUND(B10/400000,5)</f>
+        <v>2.9499999999999999E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
